--- a/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/5 INTEGRACION INVENTARIOS OBSOLETOS.xlsx
+++ b/static/templates_base_financiera/5 PRUEBAS SUSTANTIVAS/4 INVENTARIOS/5 INTEGRACION INVENTARIOS OBSOLETOS.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Toño\Desktop\AUDITORIA FINANCIERA ENVIAR\5 PRUEBAS SUSTANTIVAS\4 INVENTARIOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\documentos\Area de trabajo\JVSERVER\ClienteAuditaPro1\sistema-audita\static\templates_base_financiera\5 PRUEBAS SUSTANTIVAS\4 INVENTARIOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0C71DA-7388-4BF4-9365-4CBB54B44274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Acerno_Cache_XXXXX" sheetId="2" state="veryHidden" r:id="rId1"/>
@@ -20,12 +21,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,12 +52,6 @@
     <t>Auditoria de Estados Financieros</t>
   </si>
   <si>
-    <t xml:space="preserve">                                                                  Del 01 de enero al 31 de diciembre del 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">            Entidad XXXXXXX</t>
-  </si>
-  <si>
     <t>Descripción</t>
   </si>
   <si>
@@ -127,9 +116,6 @@
   </si>
   <si>
     <t xml:space="preserve">                                                                             Auditor </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   INTEGRACION DE INVENTARIOS OBSOLETOS</t>
   </si>
   <si>
     <r>
@@ -147,15 +133,24 @@
   <si>
     <t>D-4</t>
   </si>
+  <si>
+    <t>Entidad XXXXXXX</t>
+  </si>
+  <si>
+    <t>Del 01 de Enero al 31 de Diciembre de 2024</t>
+  </si>
+  <si>
+    <t>INTEGRACION DE INVENTARIOS OBSOLETOS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,13 +172,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -318,16 +306,15 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -335,19 +322,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -364,15 +343,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -440,7 +428,7 @@
         <xdr:cNvPr id="2" name="Conector recto 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D546D8-61D5-48B5-BE3F-DC2F197C992D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -495,7 +483,7 @@
         <xdr:cNvPr id="3" name="Conector recto 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{357CC929-BBA3-4C3B-83EF-012783752697}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,7 +538,7 @@
         <xdr:cNvPr id="4" name="Elipse 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7A4C64-07CC-4F71-B9E3-26D5D20E01AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -618,7 +606,7 @@
         <xdr:cNvPr id="7" name="Triángulo isósceles 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62C06A8B-F4A4-4998-AA59-1BD3F6DDE7E1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -683,7 +671,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="CuadroTexto 4"/>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -733,15 +727,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B11:G16" headerRowDxfId="6">
-  <autoFilter ref="B11:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B11:G16" headerRowDxfId="6">
+  <autoFilter ref="B11:G16" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="NUMERO DE MARBETE" totalsRowLabel="Total" dataDxfId="5"/>
-    <tableColumn id="2" name="Descripción" dataDxfId="4"/>
-    <tableColumn id="3" name="Cantidad" dataDxfId="3"/>
-    <tableColumn id="4" name="Fecha de Ingreso" dataDxfId="2"/>
-    <tableColumn id="5" name="Estado" dataDxfId="1"/>
-    <tableColumn id="6" name="Comentarios" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NUMERO DE MARBETE" totalsRowLabel="Total" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Descripción" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cantidad" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Fecha de Ingreso" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Estado" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Comentarios" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1043,14 +1037,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="2"/>
+    <col min="1" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1058,219 +1052,219 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="36.42578125" customWidth="1"/>
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
     <col min="7" max="7" width="33.42578125" customWidth="1"/>
     <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="23" t="s">
-        <v>34</v>
+      <c r="I2" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="24" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="13"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="H6" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="18"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="H5" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="18"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14" t="s">
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="H7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D8" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+    </row>
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="H6" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" s="18"/>
-    </row>
-    <row r="7" spans="2:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-      <c r="E7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="14"/>
-      <c r="H7" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="18"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D8" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="D9" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="17" t="s">
+      <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="F11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="G11" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="16">
+        <v>1</v>
+      </c>
+      <c r="C12" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="D12" s="14">
+        <v>50</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21">
+      <c r="F12" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="14"/>
+    </row>
+    <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="17">
+        <v>2</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15">
+        <v>30</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="16">
+        <v>3</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14">
+        <v>20</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="17">
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="15">
+        <v>15</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="16">
+        <v>5</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="14">
+        <v>10</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="10"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="19">
-        <v>50</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="19"/>
-    </row>
-    <row r="13" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22">
+      <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="20">
-        <v>30</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="21">
-        <v>3</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="19">
-        <v>20</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="19"/>
-    </row>
-    <row r="15" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="22">
-        <v>4</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="20">
-        <v>15</v>
-      </c>
-      <c r="E15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="21">
-        <v>5</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="19">
-        <v>10</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="19"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1283,54 +1277,58 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="24"/>
-      <c r="D23" s="25"/>
-      <c r="E23" s="25"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
+      <c r="B23" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="F33" s="5" t="s">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="F33" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>30</v>
+      <c r="B34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="B23:G25"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D9:F9"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="65" orientation="landscape" r:id="rId1"/>
